--- a/biology/Zoologie/Gallinule_poule-d'eau/Gallinule_poule-d'eau.xlsx
+++ b/biology/Zoologie/Gallinule_poule-d'eau/Gallinule_poule-d'eau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gallinule_poule-d%27eau</t>
+          <t>Gallinule_poule-d'eau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallinula chloropus
 La Gallinule poule-d'eau (Gallinula chloropus) ou plus simplement Poule d'eau, est une espèce d'oiseaux appartenant à l'ordre des Gruiformes et à la famille des Rallidae. Comme ces derniers, la poule d’eau est capable de voler. Elle est très fréquente dans les étangs et les mares, ainsi que dans les cours d'eau où la végétation est suffisamment dense.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gallinule_poule-d%27eau</t>
+          <t>Gallinule_poule-d'eau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 32 à 35 cm de longueur pour une envergure de 50 à 55 cm et une masse de 260 à 400 g.
 Elle se reconnaît facilement à son bec rouge à extrémité jaune (une anomalie pigmentaire pour un bec entièrement jaune). Son plumage va du bleu foncé au noir, avec des ailes brunes et une tache blanche de part et d'autre du croupion.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gallinule_poule-d%27eau</t>
+          <t>Gallinule_poule-d'eau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +564,12 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gallinule poule-d'eau a un régime alimentaire omnivore.
-Elle mange des insectes et de petits animaux aquatiques ainsi que des herbes, des graines et des baies[1].
+Elle mange des insectes et de petits animaux aquatiques ainsi que des herbes, des graines et des baies.
 Elle plonge rarement pour se nourrir mais n'hésite pas à chercher sa nourriture sur la berge.
 </t>
         </is>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gallinule_poule-d%27eau</t>
+          <t>Gallinule_poule-d'eau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau construit un nid en forme de bol avec des roseaux et des tiges dans les feuillages au bord de l'eau et défend jalousement son territoire, surtout en période de reproduction. Le mâle et la femelle, une fois le couple formé, restent fidèles jusqu'à la mort de l'un ou de l'autre[2]. Les femelles peuvent pondre dans le nid d'une autre et les adultes peuvent adopter ou enlever les poussins d'autres femelles pour les élever. Les petits sont élevés par les deux parents.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau construit un nid en forme de bol avec des roseaux et des tiges dans les feuillages au bord de l'eau et défend jalousement son territoire, surtout en période de reproduction. Le mâle et la femelle, une fois le couple formé, restent fidèles jusqu'à la mort de l'un ou de l'autre. Les femelles peuvent pondre dans le nid d'une autre et les adultes peuvent adopter ou enlever les poussins d'autres femelles pour les élever. Les petits sont élevés par les deux parents.
 Un couple de poules d'eau peut avoir jusqu'à quatre couvées chaque année, de mai à septembre. Les jeunes de la première couvée aident leurs parents à élever ceux de la seconde. Les poussins ont une zone de peau rouge sur la tête ; ils sont nourris par les parents jusqu'à ce qu'ils apprennent à trouver leur nourriture seuls, soit environ deux semaines.
 </t>
         </is>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gallinule_poule-d%27eau</t>
+          <t>Gallinule_poule-d'eau</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau commun, parfois familier sur les mares des villes et des villages.
 L'aire de répartition de cette espèce est très vaste, couvrant l'Eurasie et l'Afrique y compris la région malgache, l'Asie du sud et certaines îles du Pacifique (voir les sous-espèces pour plus de précisions).
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gallinule_poule-d%27eau</t>
+          <t>Gallinule_poule-d'eau</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +668,9 @@
           <t>Voix</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cris soudains, brefs, métalliques ou roulés ("krrou"), poussés à couvert[réf. souhaitée].
 </t>
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gallinule_poule-d%27eau</t>
+          <t>Gallinule_poule-d'eau</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,18 +701,54 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Gallinula chloropus (Linnaeus, 1758)[3].
-L'espèce a été initialement classée dans le genre Fulica sous le protonyme Fulica chloropus Linnaeus, 1758[3].
-Gallinula chloropus a pour synonymes[3] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Gallinula chloropus (Linnaeus, 1758).
+L'espèce a été initialement classée dans le genre Fulica sous le protonyme Fulica chloropus Linnaeus, 1758.
+Gallinula chloropus a pour synonymes :
 Fulica chloropus Linnaeus, 1758
 Fulica spec Linnaeus, 1758
 Gallinula brodkorbi (McCoy, 1963)
 Gallinula chloropus subsp. brodkorbi (McCoy, 1963)
-Gallinula ochropus (Linnaeus, 1758)
-Sous-espèces
-Cet oiseau est représenté par cinq sous-espèces :
+Gallinula ochropus (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gallinule_poule-d'eau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gallinule_poule-d%27eau</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cet oiseau est représenté par cinq sous-espèces :
 Gallinula chloropus chloropus (Linnaeus, 1758)
 Europe (voir carte), Russie, Afrique du nord, Proche-Orient.
 Gallinula chloropus meridionalis  (C.L. Brehm, 1831)
@@ -704,36 +762,76 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Gallinule_poule-d%27eau</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gallinule_poule-d%27eau</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gallinule_poule-d'eau</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gallinule_poule-d%27eau</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>L'animal et l'homme</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Noms vernaculaires
-La poule d'eau est un oiseau relativement peu farouche lorsqu'elle n'est pas pourchassée, et on peut donc l'observer assez facilement, même en ville où elle fréquente canaux et plans d'eau des jardins publics. Ceci lui a valu, contrairement à des espèces plus discrètes, de recevoir un nom vernaculaire dans la plupart des langues parlées dans son aire de répartition. Les Japonais l'appellent ban (バン?), les Malgaches aretaka et les Britanniques common moorhen ou swamp chicken. Elle se nomme mandar batu en indonésien, debar aux Palaos et ghjallinaccia en corse, tait en estonien, khokhonoka en sotho et gallozz iswed en maltais.
-Philatélie
-Cet oiseau est représenté sur plus de vingt timbres, en particulier par les autorités postales de la région caraïbe et de plusieurs pays européens.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poule d'eau est un oiseau relativement peu farouche lorsqu'elle n'est pas pourchassée, et on peut donc l'observer assez facilement, même en ville où elle fréquente canaux et plans d'eau des jardins publics. Ceci lui a valu, contrairement à des espèces plus discrètes, de recevoir un nom vernaculaire dans la plupart des langues parlées dans son aire de répartition. Les Japonais l'appellent ban (バン?), les Malgaches aretaka et les Britanniques common moorhen ou swamp chicken. Elle se nomme mandar batu en indonésien, debar aux Palaos et ghjallinaccia en corse, tait en estonien, khokhonoka en sotho et gallozz iswed en maltais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gallinule_poule-d'eau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gallinule_poule-d%27eau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>L'animal et l'homme</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est représenté sur plus de vingt timbres, en particulier par les autorités postales de la région caraïbe et de plusieurs pays européens.
 </t>
         </is>
       </c>
